--- a/leddaApp/static/data/variable_tables.xlsx
+++ b/leddaApp/static/data/variable_tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Model Variables" sheetId="1" state="visible" r:id="rId2"/>
@@ -483,6 +483,9 @@
     <t xml:space="preserve">CBFS</t>
   </si>
   <si>
+    <t xml:space="preserve">Crowd-Based Financial System. The financial system of a LEDDA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Roc</t>
   </si>
   <si>
@@ -628,9 +631,6 @@
   </si>
   <si>
     <t xml:space="preserve">Not in workforce. A person who is not an employee and not trying to become an employee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crowd-Based Financial System. The financial system of a LEDDA</t>
   </si>
   <si>
     <t xml:space="preserve">Tokens + dollars. The sum of tokens and dollars, for example, a wage paid in both tokens and dollars. </t>
@@ -811,20 +811,20 @@
   </sheetPr>
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B69" activeCellId="0" sqref="B69:B83"/>
+      <selection pane="bottomLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.6989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="7.95408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="71.1428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.1071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="70.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -958,6 +958,8 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
       <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,6 +1033,8 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
       <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
       <c r="E14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1070,6 +1074,8 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
       <c r="B17" s="14"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
       <c r="E17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1092,6 +1098,8 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
       <c r="E19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1130,11 +1138,19 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
         <v>45</v>
       </c>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -1173,12 +1189,18 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0"/>
       <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -1268,14 +1290,18 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
       <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
       <c r="D33" s="10"/>
+      <c r="E33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
       <c r="D34" s="10"/>
+      <c r="E34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -1416,6 +1442,9 @@
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0"/>
       <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -1554,7 +1583,11 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0"/>
       <c r="B52" s="0"/>
+      <c r="C52" s="0"/>
+      <c r="D52" s="0"/>
+      <c r="E52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -1814,6 +1847,8 @@
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0"/>
       <c r="B68" s="0"/>
+      <c r="C68" s="0"/>
+      <c r="E68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
@@ -2096,15 +2131,15 @@
   </sheetPr>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="B69:B83 B8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.9693877551021"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2155,20 +2190,20 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>147</v>
+      <c r="B7" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2180,80 +2215,80 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2262,42 +2297,42 @@
     </row>
     <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2306,34 +2341,34 @@
     </row>
     <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,10 +2385,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2375,54 +2410,54 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="B69:B83 B15"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5459183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="129.954081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="128.510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,7 +2465,7 @@
         <v>152</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
